--- a/BI304 Nesa.xlsx
+++ b/BI304 Nesa.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -217,116 +214,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Inventory"/>
-      <sheetName val="GPON"/>
-      <sheetName val="Plan"/>
-      <sheetName val="WPlan"/>
-      <sheetName val="Nesa"/>
-      <sheetName val="Sheet4"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="S2">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="S3">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="S4">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="S5">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="S6">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="S7">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="S8">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="S9">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="S10">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="S11">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="S12">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="S13">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="S14">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="S15">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="S16">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="S17">
-            <v>16</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -595,7 +482,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M17"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +545,6 @@
         <v>16</v>
       </c>
       <c r="E2" s="3">
-        <f>[1]Inventory!S2</f>
         <v>1</v>
       </c>
       <c r="F2" s="3"/>
@@ -692,7 +578,6 @@
         <v>16</v>
       </c>
       <c r="E3" s="3">
-        <f>[1]Inventory!S3</f>
         <v>2</v>
       </c>
       <c r="F3" s="3"/>
@@ -726,7 +611,6 @@
         <v>16</v>
       </c>
       <c r="E4" s="3">
-        <f>[1]Inventory!S4</f>
         <v>3</v>
       </c>
       <c r="F4" s="3"/>
@@ -760,7 +644,6 @@
         <v>16</v>
       </c>
       <c r="E5" s="3">
-        <f>[1]Inventory!S5</f>
         <v>4</v>
       </c>
       <c r="F5" s="3"/>
@@ -794,7 +677,6 @@
         <v>16</v>
       </c>
       <c r="E6" s="3">
-        <f>[1]Inventory!S6</f>
         <v>5</v>
       </c>
       <c r="F6" s="3"/>
@@ -828,7 +710,6 @@
         <v>16</v>
       </c>
       <c r="E7" s="3">
-        <f>[1]Inventory!S7</f>
         <v>6</v>
       </c>
       <c r="F7" s="3"/>
@@ -862,7 +743,6 @@
         <v>16</v>
       </c>
       <c r="E8" s="3">
-        <f>[1]Inventory!S8</f>
         <v>7</v>
       </c>
       <c r="F8" s="3"/>
@@ -896,7 +776,6 @@
         <v>16</v>
       </c>
       <c r="E9" s="3">
-        <f>[1]Inventory!S9</f>
         <v>8</v>
       </c>
       <c r="F9" s="3"/>
@@ -930,7 +809,6 @@
         <v>21</v>
       </c>
       <c r="E10" s="3">
-        <f>[1]Inventory!S10</f>
         <v>9</v>
       </c>
       <c r="F10" s="3"/>
@@ -964,7 +842,6 @@
         <v>21</v>
       </c>
       <c r="E11" s="3">
-        <f>[1]Inventory!S11</f>
         <v>10</v>
       </c>
       <c r="F11" s="3"/>
@@ -998,7 +875,6 @@
         <v>21</v>
       </c>
       <c r="E12" s="3">
-        <f>[1]Inventory!S12</f>
         <v>11</v>
       </c>
       <c r="F12" s="3"/>
@@ -1032,7 +908,6 @@
         <v>21</v>
       </c>
       <c r="E13" s="3">
-        <f>[1]Inventory!S13</f>
         <v>12</v>
       </c>
       <c r="F13" s="3"/>
@@ -1066,7 +941,6 @@
         <v>21</v>
       </c>
       <c r="E14" s="3">
-        <f>[1]Inventory!S14</f>
         <v>13</v>
       </c>
       <c r="F14" s="3"/>
@@ -1100,7 +974,6 @@
         <v>21</v>
       </c>
       <c r="E15" s="3">
-        <f>[1]Inventory!S15</f>
         <v>14</v>
       </c>
       <c r="F15" s="3"/>
@@ -1134,7 +1007,6 @@
         <v>21</v>
       </c>
       <c r="E16" s="3">
-        <f>[1]Inventory!S16</f>
         <v>15</v>
       </c>
       <c r="F16" s="3"/>
@@ -1168,7 +1040,6 @@
         <v>21</v>
       </c>
       <c r="E17" s="3">
-        <f>[1]Inventory!S17</f>
         <v>16</v>
       </c>
       <c r="F17" s="3"/>
